--- a/Shading Trees/my_graphs/Energy Change by Activities.xlsx
+++ b/Shading Trees/my_graphs/Energy Change by Activities.xlsx
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-59.18430472636828</v>
+        <v>5.0037433540856</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.1027155591589235</v>
+        <v>0.008684097901948462</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>3.537237439382723E-05</v>
+        <v>7.706714294508643E-09</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.003670771535993822</v>
+        <v>7.9976501154988E-07</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>6.252243808362437</v>
+        <v>0.0003940150841117429</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.19082530730239</v>
+        <v>1.202577055892107E-05</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.8562240453861705</v>
+        <v>0.0256615416110435</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-12.11446441893349</v>
+        <v>0.3630776716163382</v>
       </c>
       <c r="E5">
-        <v>-2.793475263231812</v>
+        <v>0.08372210765810451</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-6.101362388948473</v>
+        <v>0.1828614434161864</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.009405642036533379</v>
+        <v>0.0002818926609222672</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-57.16976163617437</v>
+        <v>0.03967355988788768</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.09921927883738135</v>
+        <v>6.88542664590841E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-154.6763323980849</v>
+        <v>0.06122700416744919</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-4.720890542175539</v>
+        <v>0.001868715014779809</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.008557363141179053</v>
+        <v>0.00251687838034087</v>
       </c>
       <c r="C8">
-        <v>-2.1039006860683</v>
+        <v>0.3226684834226035</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-5.350059892829449</v>
+        <v>2.24436687794514</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.009969488567818985</v>
+        <v>-0.02278367530963976</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>-0.9898313170915571</v>
+        <v>2.262101529732718</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.4222046615813042</v>
+        <v>0.1286708166352355</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-5.946354896905177</v>
+        <v>0.3467970843939838</v>
       </c>
       <c r="E10">
-        <v>-1.371170541274296</v>
+        <v>0.0799679726769682</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -742,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-3.112311477120784</v>
+        <v>5.512203275374304</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.004616734653225762</v>
+        <v>0.0002692523646707912</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.008589890716137916</v>
+        <v>0.0005413324036283029</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-5.280807628500042</v>
+        <v>0.2118378125596792</v>
       </c>
       <c r="I11">
         <v>0</v>
